--- a/prevention/ValueSet-DeliveryTypes119.xlsx
+++ b/prevention/ValueSet-DeliveryTypes119.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-28T10:27:14+02:00</t>
+    <t>2024-06-14T10:04:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>

--- a/prevention/ValueSet-DeliveryTypes119.xlsx
+++ b/prevention/ValueSet-DeliveryTypes119.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T10:04:53+02:00</t>
+    <t>2024-06-19T12:57:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/ValueSet-DeliveryTypes119.xlsx
+++ b/prevention/ValueSet-DeliveryTypes119.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:57:23+02:00</t>
+    <t>2024-06-21T13:40:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/ValueSet-DeliveryTypes119.xlsx
+++ b/prevention/ValueSet-DeliveryTypes119.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:40:09+02:00</t>
+    <t>2024-06-19T12:57:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/ValueSet-DeliveryTypes119.xlsx
+++ b/prevention/ValueSet-DeliveryTypes119.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:57:23+02:00</t>
+    <t>2024-06-24T12:38:57+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
